--- a/newDataset.xlsx
+++ b/newDataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanda\01_Dashboard_Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D36593-0EEE-4731-B463-E0E6B264CF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D728FE5C-80CB-4C44-A094-23D03FBDE8B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{88A9D61A-70E6-4720-B31D-3FC863B46EB2}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{88A9D61A-70E6-4720-B31D-3FC863B46EB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$D$4273</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -6749,10 +6749,10 @@
     <t>45.92</t>
   </si>
   <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
 </sst>
 </file>
@@ -7114,7 +7114,7 @@
   <dimension ref="A1:AF4273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I158" sqref="I158"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7124,13 +7124,13 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2237</v>
+        <v>2236</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -50252,15 +50252,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101003807C43F9BB91B45B259992CB6C29F35" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="3b0bedeb82f2c0507193cfd12163b7ad">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5378fb07-7e75-42b8-9136-ae5cd4182d29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30e13307d4de71949ddccfae42d17d28" ns3:_="">
     <xsd:import namespace="5378fb07-7e75-42b8-9136-ae5cd4182d29"/>
@@ -50392,6 +50383,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07D14DD0-2EA3-4E6E-86AA-F8D55D2930BC}">
   <ds:schemaRefs>
@@ -50409,14 +50409,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1110445C-FA47-46AA-9179-BBDE883A93DE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BFAB0D0-EC2E-4EC8-B761-908F447CCC87}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -50432,4 +50424,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1110445C-FA47-46AA-9179-BBDE883A93DE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>